--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H2">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I2">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J2">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>108.565873700692</v>
+        <v>41.01463212207</v>
       </c>
       <c r="R2">
-        <v>977.0928633062281</v>
+        <v>369.13168909863</v>
       </c>
       <c r="S2">
-        <v>0.01758326476022955</v>
+        <v>0.006273249612101237</v>
       </c>
       <c r="T2">
-        <v>0.02037289302033838</v>
+        <v>0.007500523681059962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H3">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I3">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J3">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>489.2527277481481</v>
+        <v>271.533110885127</v>
       </c>
       <c r="R3">
-        <v>4403.274549733333</v>
+        <v>2443.797997966143</v>
       </c>
       <c r="S3">
-        <v>0.0792390827192814</v>
+        <v>0.04153139731847472</v>
       </c>
       <c r="T3">
-        <v>0.0918105583509731</v>
+        <v>0.04965643778845107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H4">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I4">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J4">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>60.48073623235202</v>
+        <v>20.018442886389</v>
       </c>
       <c r="R4">
-        <v>544.3266260911681</v>
+        <v>180.165985977501</v>
       </c>
       <c r="S4">
-        <v>0.009795424306158143</v>
+        <v>0.003061850919402383</v>
       </c>
       <c r="T4">
-        <v>0.01134949249752279</v>
+        <v>0.003660859482548226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H5">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I5">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J5">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>414.5733214850281</v>
+        <v>305.421459440625</v>
       </c>
       <c r="R5">
-        <v>2487.439928910169</v>
+        <v>1832.52875664375</v>
       </c>
       <c r="S5">
-        <v>0.06714405020398731</v>
+        <v>0.04671467115103787</v>
       </c>
       <c r="T5">
-        <v>0.05186441275881332</v>
+        <v>0.03723583138850278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H6">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I6">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J6">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>109.771723926456</v>
+        <v>27.873703605984</v>
       </c>
       <c r="R6">
-        <v>987.9455153381041</v>
+        <v>250.863332453856</v>
       </c>
       <c r="S6">
-        <v>0.0177785635503378</v>
+        <v>0.00426332484986431</v>
       </c>
       <c r="T6">
-        <v>0.02059917644449955</v>
+        <v>0.005097385083286659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
         <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J7">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>151.0986477477417</v>
+        <v>102.8528965534166</v>
       </c>
       <c r="R7">
-        <v>1359.887829729675</v>
+        <v>925.6760689807498</v>
       </c>
       <c r="S7">
-        <v>0.02447184771511003</v>
+        <v>0.01573150507572187</v>
       </c>
       <c r="T7">
-        <v>0.02835436662693124</v>
+        <v>0.01880915532701789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
         <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J8">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
-        <v>680.926916071675</v>
+        <v>680.9269160716749</v>
       </c>
       <c r="R8">
         <v>6128.342244645075</v>
       </c>
       <c r="S8">
-        <v>0.1102825210126647</v>
+        <v>0.1041487949813248</v>
       </c>
       <c r="T8">
-        <v>0.1277791145866193</v>
+        <v>0.1245240587277749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
         <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J9">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>84.17523065020001</v>
+        <v>50.20049501422499</v>
       </c>
       <c r="R9">
-        <v>757.5770758518</v>
+        <v>451.8044551280249</v>
       </c>
       <c r="S9">
-        <v>0.01363297062257623</v>
+        <v>0.007678241144233455</v>
       </c>
       <c r="T9">
-        <v>0.01579587498854994</v>
+        <v>0.009180382272708867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H10">
         <v>236.194275</v>
       </c>
       <c r="I10">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J10">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>576.9904126721751</v>
+        <v>765.9091438281249</v>
       </c>
       <c r="R10">
-        <v>3461.942476033051</v>
+        <v>4595.45486296875</v>
       </c>
       <c r="S10">
-        <v>0.09344902633123002</v>
+        <v>0.11714695441189</v>
       </c>
       <c r="T10">
-        <v>0.07218329634312574</v>
+        <v>0.09337675155743544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H11">
         <v>236.194275</v>
       </c>
       <c r="I11">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J11">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>152.77691304685</v>
+        <v>69.89922876826665</v>
       </c>
       <c r="R11">
-        <v>1374.99221742165</v>
+        <v>629.0930589144</v>
       </c>
       <c r="S11">
-        <v>0.02474365857137857</v>
+        <v>0.01069119207144491</v>
       </c>
       <c r="T11">
-        <v>0.02866930094499092</v>
+        <v>0.01278277515945574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H12">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I12">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J12">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>174.0680227384913</v>
+        <v>96.64808552061</v>
       </c>
       <c r="R12">
-        <v>1566.612204646422</v>
+        <v>869.8327696854899</v>
       </c>
       <c r="S12">
-        <v>0.02819195411753998</v>
+        <v>0.01478246990483781</v>
       </c>
       <c r="T12">
-        <v>0.03266467707237277</v>
+        <v>0.01767445461948611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H13">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I13">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J13">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>784.4385352005019</v>
+        <v>639.848609257221</v>
       </c>
       <c r="R13">
-        <v>7059.946816804518</v>
+        <v>5758.637483314989</v>
       </c>
       <c r="S13">
-        <v>0.1270472016886569</v>
+        <v>0.09786580622934513</v>
       </c>
       <c r="T13">
-        <v>0.1472035531416619</v>
+        <v>0.1170118905795236</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H14">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I14">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J14">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>96.971191875248</v>
+        <v>47.172047632047</v>
       </c>
       <c r="R14">
-        <v>872.740726877232</v>
+        <v>424.548428688423</v>
       </c>
       <c r="S14">
-        <v>0.01570539694230488</v>
+        <v>0.007215035566551481</v>
       </c>
       <c r="T14">
-        <v>0.01819709684809124</v>
+        <v>0.008626556963749258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H15">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I15">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J15">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>664.702045782622</v>
+        <v>719.704110571875</v>
       </c>
       <c r="R15">
-        <v>3988.212274695732</v>
+        <v>4318.22466343125</v>
       </c>
       <c r="S15">
-        <v>0.1076547506068435</v>
+        <v>0.110079825147163</v>
       </c>
       <c r="T15">
-        <v>0.08315629462264504</v>
+        <v>0.08774360832388227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H16">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I16">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J16">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>176.001410803844</v>
+        <v>65.682415043232</v>
       </c>
       <c r="R16">
-        <v>1584.012697234596</v>
+        <v>591.141735389088</v>
       </c>
       <c r="S16">
-        <v>0.02850508450629443</v>
+        <v>0.01004622407597086</v>
       </c>
       <c r="T16">
-        <v>0.03302748636851329</v>
+        <v>0.01201162814272505</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H17">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I17">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J17">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>38.66031610983166</v>
+        <v>15.30286753304667</v>
       </c>
       <c r="R17">
-        <v>231.96189665899</v>
+        <v>91.81720519827999</v>
       </c>
       <c r="S17">
-        <v>0.006261401955345796</v>
+        <v>0.002340596583434053</v>
       </c>
       <c r="T17">
-        <v>0.004836525864530144</v>
+        <v>0.001865667842281702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H18">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I18">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J18">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>174.222934588885</v>
+        <v>101.311044661918</v>
       </c>
       <c r="R18">
-        <v>1045.33760753331</v>
+        <v>607.866267971508</v>
       </c>
       <c r="S18">
-        <v>0.02821704354930266</v>
+        <v>0.0154956765121138</v>
       </c>
       <c r="T18">
-        <v>0.02179583133618497</v>
+        <v>0.01235146012245947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H19">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I19">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J19">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>21.53719489924</v>
+        <v>7.469031510426</v>
       </c>
       <c r="R19">
-        <v>129.22316939544</v>
+        <v>44.814189062556</v>
       </c>
       <c r="S19">
-        <v>0.003488151360988756</v>
+        <v>0.001142399592567333</v>
       </c>
       <c r="T19">
-        <v>0.002694370110261743</v>
+        <v>0.0009105961266343283</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H20">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I20">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J20">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>147.629592181985</v>
+        <v>113.95504223125</v>
       </c>
       <c r="R20">
-        <v>590.51836872794</v>
+        <v>455.8201689250001</v>
       </c>
       <c r="S20">
-        <v>0.02391000152531366</v>
+        <v>0.01742959493935088</v>
       </c>
       <c r="T20">
-        <v>0.01231261429126679</v>
+        <v>0.009261979050552895</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H21">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I21">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J21">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>39.08971946947</v>
+        <v>10.39988832932267</v>
       </c>
       <c r="R21">
-        <v>234.53831681682</v>
+        <v>62.39932997593601</v>
       </c>
       <c r="S21">
-        <v>0.006330947869767013</v>
+        <v>0.001590678546954791</v>
       </c>
       <c r="T21">
-        <v>0.004890245561216194</v>
+        <v>0.00126791512619695</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H22">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I22">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J22">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>94.411228536108</v>
+        <v>146.89972689707</v>
       </c>
       <c r="R22">
-        <v>849.7010568249721</v>
+        <v>1322.09754207363</v>
       </c>
       <c r="S22">
-        <v>0.01529078679240938</v>
+        <v>0.02246853396202819</v>
       </c>
       <c r="T22">
-        <v>0.0177167077767697</v>
+        <v>0.02686419024930915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H23">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I23">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J23">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>425.464738751052</v>
+        <v>972.534380262627</v>
       </c>
       <c r="R23">
-        <v>3829.182648759469</v>
+        <v>8752.809422363644</v>
       </c>
       <c r="S23">
-        <v>0.06890801770938042</v>
+        <v>0.1487505948018662</v>
       </c>
       <c r="T23">
-        <v>0.07984044443282688</v>
+        <v>0.1778515805796933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H24">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I24">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J24">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>52.59535446844801</v>
+        <v>71.698894778889</v>
       </c>
       <c r="R24">
-        <v>473.3581902160321</v>
+        <v>645.290053010001</v>
       </c>
       <c r="S24">
-        <v>0.008518312534622459</v>
+        <v>0.01096645369196724</v>
       </c>
       <c r="T24">
-        <v>0.009869763798028897</v>
+        <v>0.01311188788904202</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H25">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I25">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J25">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>360.5219141661721</v>
+        <v>1093.910311003125</v>
       </c>
       <c r="R25">
-        <v>2163.131484997033</v>
+        <v>6563.46186601875</v>
       </c>
       <c r="S25">
-        <v>0.05838991620999729</v>
+        <v>0.1673152257894141</v>
       </c>
       <c r="T25">
-        <v>0.04510241348365945</v>
+        <v>0.133365415675959</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H26">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I26">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J26">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>95.45986193594402</v>
+        <v>99.83362608598399</v>
       </c>
       <c r="R26">
-        <v>859.138757423496</v>
+        <v>898.502634773856</v>
       </c>
       <c r="S26">
-        <v>0.01546062283827928</v>
+        <v>0.01526970312093953</v>
       </c>
       <c r="T26">
-        <v>0.01791348872960678</v>
+        <v>0.01825700824026351</v>
       </c>
     </row>
   </sheetData>
